--- a/Training/LSTM_BTC_result3.xlsx
+++ b/Training/LSTM_BTC_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>1917.667594213588</v>
+        <v>1710.538078473192</v>
       </c>
       <c r="F1" t="n">
-        <v>1887.754048931312</v>
+        <v>1679.28078694132</v>
       </c>
       <c r="G1" t="n">
-        <v>9.342906599792848</v>
+        <v>8.292885792619543</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>376.9132664458584</v>
+        <v>1503.482844758048</v>
       </c>
       <c r="F2" t="n">
-        <v>271.4766820365029</v>
+        <v>1475.388838820504</v>
       </c>
       <c r="G2" t="n">
-        <v>1.267604081456063</v>
+        <v>7.293761066339431</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>411.9831919896943</v>
+        <v>696.0310617874234</v>
       </c>
       <c r="F3" t="n">
-        <v>309.221015992735</v>
+        <v>630.1397378181771</v>
       </c>
       <c r="G3" t="n">
-        <v>1.444247144049668</v>
+        <v>2.986604255957733</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>855.2534042070652</v>
+        <v>767.6612288790386</v>
       </c>
       <c r="F4" t="n">
-        <v>766.4882541501574</v>
+        <v>702.1745392566936</v>
       </c>
       <c r="G4" t="n">
-        <v>3.676710838314095</v>
+        <v>3.427814142319609</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>677.9095728784064</v>
+        <v>497.4009020458487</v>
       </c>
       <c r="F5" t="n">
-        <v>546.9495048931313</v>
+        <v>371.5191389668996</v>
       </c>
       <c r="G5" t="n">
-        <v>2.785890832623101</v>
+        <v>1.725419891833339</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>953.4043804656784</v>
+        <v>1598.476350245561</v>
       </c>
       <c r="F6" t="n">
-        <v>894.6014723297919</v>
+        <v>1566.042600711039</v>
       </c>
       <c r="G6" t="n">
-        <v>4.371893581403059</v>
+        <v>7.768664233632903</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>573.8206221946621</v>
+        <v>686.3636871275337</v>
       </c>
       <c r="F7" t="n">
-        <v>515.1894213121399</v>
+        <v>640.8511194505868</v>
       </c>
       <c r="G7" t="n">
-        <v>2.53730404914976</v>
+        <v>3.19301935694511</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>331.6646818276062</v>
+        <v>374.425135257419</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5137438010332</v>
+        <v>317.5235739946821</v>
       </c>
       <c r="G8" t="n">
-        <v>1.259064186061658</v>
+        <v>1.56022741903097</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>417.4854066942971</v>
+        <v>556.0350768064419</v>
       </c>
       <c r="F9" t="n">
-        <v>299.5700460269575</v>
+        <v>476.2976606865445</v>
       </c>
       <c r="G9" t="n">
-        <v>1.430447752876498</v>
+        <v>2.274929853078703</v>
       </c>
     </row>
   </sheetData>
